--- a/output/fit_clients/fit_round_225.xlsx
+++ b/output/fit_clients/fit_round_225.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1832010220.091522</v>
+        <v>1707798887.432432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09855654251117092</v>
+        <v>0.1115743434909198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03390670233786967</v>
+        <v>0.03434751903279747</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>916005083.0591147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2326669753.320172</v>
+        <v>2495274017.361004</v>
       </c>
       <c r="F3" t="n">
-        <v>0.143475133512214</v>
+        <v>0.1678033573495938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04243361436807468</v>
+        <v>0.04236139034837553</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1163334967.296911</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4061253652.702917</v>
+        <v>4468063732.007446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1498530530943259</v>
+        <v>0.1136424802307754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03243051531202448</v>
+        <v>0.0313818858949874</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2030626844.854295</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3474272246.36359</v>
+        <v>2624910335.237057</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1066092780600004</v>
+        <v>0.08002747886019182</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04811495803707162</v>
+        <v>0.04235590100296061</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1737136161.675083</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2532481638.663859</v>
+        <v>2774805013.236168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1025565827018924</v>
+        <v>0.1433242617037248</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04546394256971958</v>
+        <v>0.04316972923022711</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1266240791.286002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1990739237.798826</v>
+        <v>2716394175.936196</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06320168449608697</v>
+        <v>0.0951780881622508</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04567935579356798</v>
+        <v>0.04733074926586059</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>69</v>
-      </c>
-      <c r="J7" t="n">
-        <v>995369680.9205867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3464068678.315389</v>
+        <v>3228402485.434096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1898949127305488</v>
+        <v>0.1333865513320161</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02696902579971212</v>
+        <v>0.02330072391490532</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1732034444.099345</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2257737272.606212</v>
+        <v>1391601136.823539</v>
       </c>
       <c r="F9" t="n">
-        <v>0.140987703753008</v>
+        <v>0.152256026491458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02607060405650016</v>
+        <v>0.03086004973101754</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1128868627.136517</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4228646881.502769</v>
+        <v>5022669740.61622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1618273687306564</v>
+        <v>0.1758506319828842</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04905671654579773</v>
+        <v>0.03635380913099748</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>95</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2114323480.315629</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3093268734.257649</v>
+        <v>3623035309.7502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1813711369980137</v>
+        <v>0.1792775538994872</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04491471916049019</v>
+        <v>0.03502579819214568</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>93</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1546634316.604947</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2648697231.843751</v>
+        <v>2535282550.238121</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1395442365304585</v>
+        <v>0.1565703544733246</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05314214987964449</v>
+        <v>0.03612187337125992</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>77</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1324348601.768258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4813487775.613557</v>
+        <v>5032456471.002756</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08514046964569161</v>
+        <v>0.06561944801782257</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02696030973758889</v>
+        <v>0.024234953297408</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2406743901.394531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2643008421.762944</v>
+        <v>2911385223.687095</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1157441577038239</v>
+        <v>0.1565785221332832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03776236923050513</v>
+        <v>0.03292952422553275</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1321504271.146529</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1795103842.880819</v>
+        <v>1348945640.79285</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08023082581793101</v>
+        <v>0.08218479562310201</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03619225916348922</v>
+        <v>0.04828448433841212</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>897552073.8397865</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2568030954.441631</v>
+        <v>2312351196.002013</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1056210775936456</v>
+        <v>0.1019023848559523</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03720618184527766</v>
+        <v>0.03718431050465561</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1284015501.948273</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4002433578.858992</v>
+        <v>5042590341.305975</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1456321569573049</v>
+        <v>0.1560017667951318</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04380707716330592</v>
+        <v>0.04199723590531992</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2001216823.886932</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3146418298.320858</v>
+        <v>3712684963.006335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1679803889681975</v>
+        <v>0.1782027663668513</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0224563167093482</v>
+        <v>0.02524563403253234</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>74</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1573209168.808255</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1251224769.45493</v>
+        <v>945536944.4939842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1159859109520138</v>
+        <v>0.1436439130280374</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01832465115625478</v>
+        <v>0.020923483040258</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>625612475.088625</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1713515117.921864</v>
+        <v>2562632937.479742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1292529866474992</v>
+        <v>0.1138035824051302</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02660346644293691</v>
+        <v>0.02052193953247385</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>856757615.8025805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2598552062.260324</v>
+        <v>2435160385.966168</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0877527295957635</v>
+        <v>0.07664094734749766</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03398484568759885</v>
+        <v>0.03381236876507115</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1299276009.78902</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3408862989.255711</v>
+        <v>3600421315.988431</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09870536108865978</v>
+        <v>0.1188056195710508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04491851390185995</v>
+        <v>0.04025858965370919</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1704431531.661298</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1449599599.719739</v>
+        <v>1110326870.952671</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1211565700148345</v>
+        <v>0.1648519720014883</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05001334834791672</v>
+        <v>0.05003288481253153</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>724799794.2738346</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3281078296.318795</v>
+        <v>2670034064.212792</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1485572126820243</v>
+        <v>0.1501815083039622</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0226662028868</v>
+        <v>0.02726478943614314</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1640539164.463986</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1290204752.603282</v>
+        <v>1366777149.212815</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08253506727546048</v>
+        <v>0.1103639213830346</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02403777327280752</v>
+        <v>0.02540065105335924</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>645102373.5016594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1125556273.923314</v>
+        <v>967981688.1666384</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1041850352889464</v>
+        <v>0.07961097643079262</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03835473378346538</v>
+        <v>0.0299388573539593</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>562778139.7447894</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4286421925.778536</v>
+        <v>3931698768.130291</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1257274513277603</v>
+        <v>0.1024578067111742</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02007262852004973</v>
+        <v>0.01898457999209517</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2143210958.824246</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2495811414.41068</v>
+        <v>2698410236.317708</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1236645754188641</v>
+        <v>0.1392626797582449</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03036315571496126</v>
+        <v>0.049421091134135</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1247905674.637033</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3760412619.783944</v>
+        <v>4430246326.258847</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09917010174858847</v>
+        <v>0.09367255888827242</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03733332356957079</v>
+        <v>0.03706252335431636</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>99</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1880206343.331635</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1834301887.580625</v>
+        <v>1865425932.77987</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1378570511961862</v>
+        <v>0.132867186502062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02483595187145163</v>
+        <v>0.03320666636564261</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>917150962.3649535</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>983222676.4613204</v>
+        <v>1328703703.425643</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07393585825895609</v>
+        <v>0.07480716083604462</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04300878594080308</v>
+        <v>0.04264364160504459</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>491611340.6979413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1313668689.462231</v>
+        <v>1324769652.426396</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09050092420829429</v>
+        <v>0.07541023253034534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02453097611654997</v>
+        <v>0.03634421287261345</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>656834374.4904617</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2538283113.777539</v>
+        <v>2500146375.696528</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1420895623971629</v>
+        <v>0.1298923541094435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04767054404835126</v>
+        <v>0.04373355559957575</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>65</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1269141591.809412</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1441490530.730148</v>
+        <v>1307822939.357627</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09346316285348674</v>
+        <v>0.08389042562148843</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02107190330072486</v>
+        <v>0.02293874278454928</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>720745230.8045961</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>931950904.9613707</v>
+        <v>1326858776.964191</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1169473390771327</v>
+        <v>0.1142932399281023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0418446023898423</v>
+        <v>0.02943141308134636</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>465975485.9710522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2897241620.595209</v>
+        <v>2681663241.951012</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1225040307736101</v>
+        <v>0.1474897913887128</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02845421295722959</v>
+        <v>0.02129718659217253</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>56</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1448620800.452902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2265746948.318469</v>
+        <v>1819631514.388459</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1111570362727253</v>
+        <v>0.0838633129045081</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02735189183713603</v>
+        <v>0.03270012309542261</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>59</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1132873537.976153</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2038184360.060034</v>
+        <v>2096336431.995046</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1073719079962123</v>
+        <v>0.09523887375886034</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02621369109198994</v>
+        <v>0.03820034906917086</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1019092153.250185</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2091049088.451112</v>
+        <v>2137392319.995808</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1498109561582521</v>
+        <v>0.1487655275802977</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03142908612518978</v>
+        <v>0.02875704108175876</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1045524524.921147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1180186641.518831</v>
+        <v>1660966556.54527</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1242957534010399</v>
+        <v>0.1131351808777335</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05193530197179621</v>
+        <v>0.03842798633409503</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>590093366.9973326</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1991861642.316766</v>
+        <v>2521906520.36578</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1254956053702498</v>
+        <v>0.1156024779720747</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03646660858123578</v>
+        <v>0.03673484919697118</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>995930896.1713362</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3064952967.626152</v>
+        <v>3585107155.155725</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09310734016514133</v>
+        <v>0.1234232023322906</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04570423836889011</v>
+        <v>0.03771370478077968</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1532476448.714757</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1983957499.075474</v>
+        <v>2502261240.205717</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1786247552543461</v>
+        <v>0.1503731321522482</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0181234979977109</v>
+        <v>0.02051195932018033</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>77</v>
-      </c>
-      <c r="J43" t="n">
-        <v>991978850.0596203</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1694957813.328725</v>
+        <v>1471265447.730681</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06561298961126089</v>
+        <v>0.07569736673898568</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02823565950499824</v>
+        <v>0.02515367472870296</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>847478952.1243025</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1756972059.278883</v>
+        <v>2314539659.904655</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1423675783548382</v>
+        <v>0.1250194498477145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03853603558068007</v>
+        <v>0.05447714399283046</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>878485995.9884685</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3746719069.677674</v>
+        <v>5676638257.339463</v>
       </c>
       <c r="F46" t="n">
-        <v>0.158948680426452</v>
+        <v>0.1511961305869866</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03980430508772163</v>
+        <v>0.05189310451015466</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>80</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1873359489.855249</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3720576719.860163</v>
+        <v>3198657800.561008</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1324010447594065</v>
+        <v>0.1848820126418253</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05777155115627997</v>
+        <v>0.0421261897800462</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>60</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1860288343.209997</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4605528198.968847</v>
+        <v>3442714380.343773</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07990799161310783</v>
+        <v>0.09039127854572004</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02394951930166805</v>
+        <v>0.02427035124928064</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2302764098.670777</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1258138542.452549</v>
+        <v>1884147039.31849</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1584947456034768</v>
+        <v>0.1933293066129745</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03578767110885845</v>
+        <v>0.03736797880799721</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>629069340.8507646</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2789674511.933177</v>
+        <v>3389532489.390239</v>
       </c>
       <c r="F50" t="n">
-        <v>0.151306070757133</v>
+        <v>0.1341974786489128</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05235127295649351</v>
+        <v>0.03238052819576272</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>76</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1394837330.747462</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1403227932.498053</v>
+        <v>1171042333.239009</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1775297404932319</v>
+        <v>0.1352099992187019</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03559985172935021</v>
+        <v>0.049097657366739</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>701613984.8515441</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4110014203.578655</v>
+        <v>3694346710.345226</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1001122016322091</v>
+        <v>0.1048839892821502</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05639264040430007</v>
+        <v>0.04116289482756721</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>93</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2055007151.778608</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2740305581.086221</v>
+        <v>2617722658.560569</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1654166992399516</v>
+        <v>0.1980590047877199</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02862020622835049</v>
+        <v>0.02380429132312011</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>64</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1370152840.924371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4774427955.156946</v>
+        <v>4888066654.297425</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1289686809604977</v>
+        <v>0.1557799807739252</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0523164756685592</v>
+        <v>0.04642406937360794</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2387214102.43374</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4605386263.429574</v>
+        <v>3476826371.869955</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2038660047615607</v>
+        <v>0.2175932947880787</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03021212540194428</v>
+        <v>0.03057878409131001</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2302693133.308332</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1647819157.178054</v>
+        <v>1491171607.528679</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1154849619575368</v>
+        <v>0.1121613024876406</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03799069186645036</v>
+        <v>0.04180871532824604</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>823909598.9019231</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3158955999.014207</v>
+        <v>3372624495.374706</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1113797524471488</v>
+        <v>0.1667927141949737</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01786340896808503</v>
+        <v>0.02123179622128104</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>72</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1579478017.240862</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1582859212.836278</v>
+        <v>1764781187.357095</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1498927571824567</v>
+        <v>0.1262935730558938</v>
       </c>
       <c r="G58" t="n">
-        <v>0.030721241335269</v>
+        <v>0.02480309923132952</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>791429629.9915334</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5133368390.568971</v>
+        <v>3666100685.627517</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09223318461295832</v>
+        <v>0.1218604674079387</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04769192581457887</v>
+        <v>0.03170519324766422</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2566684116.532685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2461385899.81788</v>
+        <v>3592570554.205406</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1321721639701515</v>
+        <v>0.1548075413401911</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02568493265381262</v>
+        <v>0.02498749496767039</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1230692963.74864</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2155585934.012689</v>
+        <v>2405811831.521926</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1148006903954907</v>
+        <v>0.1390597176298797</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02816309264720543</v>
+        <v>0.02543553825813056</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1077793027.083813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1299970177.102798</v>
+        <v>1304260743.549557</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1554077448756695</v>
+        <v>0.168183560302474</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03008177319867078</v>
+        <v>0.04954546027087162</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>649985041.6038724</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4801364966.525539</v>
+        <v>3782172570.984726</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08832893535502895</v>
+        <v>0.07784680714523123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04338815688206663</v>
+        <v>0.02879095740796754</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>64</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2400682509.862844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5480363281.298563</v>
+        <v>5178244884.628075</v>
       </c>
       <c r="F64" t="n">
-        <v>0.155137553094193</v>
+        <v>0.1609852279109357</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02982235512349025</v>
+        <v>0.03246700420224886</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>70</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2740181780.618516</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4471205978.458431</v>
+        <v>4967810719.731339</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1069302181511225</v>
+        <v>0.1709606291395818</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03211699758964538</v>
+        <v>0.02152554918962692</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>80</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2235602979.686163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5453314582.690674</v>
+        <v>4467894685.118554</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1462960674876993</v>
+        <v>0.1477263879782641</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03999312988072046</v>
+        <v>0.03266349139130396</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>65</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2726657342.784466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3069039469.036581</v>
+        <v>2775157803.455308</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07144928946992381</v>
+        <v>0.0903206234318038</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04760798087813486</v>
+        <v>0.0332375995639306</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>72</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1534519746.948164</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4235896062.444131</v>
+        <v>4683961689.274631</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1185318547006136</v>
+        <v>0.1276939393215339</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03788232939168897</v>
+        <v>0.04375354992159981</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2117948041.292519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2259553347.385182</v>
+        <v>2120435721.834603</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1185203029581151</v>
+        <v>0.1439619562474646</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04880615313615601</v>
+        <v>0.05503743445563838</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1129776712.224343</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3697932066.185937</v>
+        <v>3411874671.128604</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07882432568699045</v>
+        <v>0.07373732784520108</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03323737551912566</v>
+        <v>0.04771059474825011</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1848966055.560087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5577545774.234082</v>
+        <v>5654171854.592896</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1680432578482826</v>
+        <v>0.1654286123270056</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02685558034925278</v>
+        <v>0.02130688565268092</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>82</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2788773035.961378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1687044255.158432</v>
+        <v>1865668927.423041</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06600433378527873</v>
+        <v>0.09066594666433329</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0370636140662525</v>
+        <v>0.04937857605219898</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>843522124.3553075</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3440612594.501993</v>
+        <v>3491633899.964341</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09317224448887797</v>
+        <v>0.108761034813223</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03240216704721216</v>
+        <v>0.03392305218537502</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>87</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1720306252.879031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3717835718.181558</v>
+        <v>3088246178.231815</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1165838548915588</v>
+        <v>0.1806963303091018</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0315298902810108</v>
+        <v>0.02184865349236025</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>76</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1858917862.381135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1631716103.974054</v>
+        <v>2329847060.951344</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1566687243765115</v>
+        <v>0.1417335319698088</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02389893438330956</v>
+        <v>0.02423934150316244</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>815858050.6845537</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3307826704.395305</v>
+        <v>4481706021.785255</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08912689520794259</v>
+        <v>0.1150932138027022</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02760213930423489</v>
+        <v>0.02759453483545108</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1653913307.892786</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1633379869.692991</v>
+        <v>2271836740.706826</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1600355844826622</v>
+        <v>0.1412903652247266</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02279377021395342</v>
+        <v>0.03091852301133165</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>816689942.2103349</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3336489390.792852</v>
+        <v>3156551756.513278</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09381850916874467</v>
+        <v>0.09004836160998048</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05017896954248557</v>
+        <v>0.04245749188880136</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>78</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1668244708.605311</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1268263403.637025</v>
+        <v>1379368725.891789</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1286826241121332</v>
+        <v>0.1326808641260364</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03978446483533109</v>
+        <v>0.02643585033720963</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>634131695.5027491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4159148273.34672</v>
+        <v>4271561179.172611</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09736306176113292</v>
+        <v>0.0963317352857487</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0290729011444537</v>
+        <v>0.02680835640135019</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>47</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2079574144.04552</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4000942086.83599</v>
+        <v>3916572517.458026</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1054944060904991</v>
+        <v>0.1111961310253337</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02060878431011976</v>
+        <v>0.02320296108234117</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2000471006.665261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5507900653.167869</v>
+        <v>3535780375.856893</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1712615961044242</v>
+        <v>0.1349476998710658</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02037349209659212</v>
+        <v>0.02388864146949664</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>80</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2753950282.187279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2230998436.64113</v>
+        <v>2464682235.563944</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1236204200645506</v>
+        <v>0.1575013643255622</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04008022594303604</v>
+        <v>0.04101299160412917</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1115499232.370532</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2227222169.059904</v>
+        <v>2593983451.763899</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08054216366546817</v>
+        <v>0.07566064986166622</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05121884364122287</v>
+        <v>0.0512589941727109</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1113611056.223968</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2978439967.234765</v>
+        <v>2706070879.653042</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1288160423715195</v>
+        <v>0.1305020717693379</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05588743193472013</v>
+        <v>0.03417800753483907</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>84</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1489220041.375425</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2520278379.959836</v>
+        <v>2452056813.783038</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1387927987974173</v>
+        <v>0.1395998202766422</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02560531054901384</v>
+        <v>0.0187867379683364</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1260139289.955089</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1115794314.214929</v>
+        <v>1292232477.443935</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1182154576316759</v>
+        <v>0.1635685198076939</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03126525665097486</v>
+        <v>0.03261419839820173</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>557897191.112648</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2249404026.735506</v>
+        <v>2841914636.088908</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1433592010135054</v>
+        <v>0.1760379252204758</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03321701311232208</v>
+        <v>0.02845661604794441</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>89</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1124701969.617957</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2772494403.23071</v>
+        <v>2160088362.756738</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1317933572873858</v>
+        <v>0.1474675752308907</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03626986668511541</v>
+        <v>0.03738951524591386</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>76</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1386247256.388528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1677533499.627421</v>
+        <v>1549074702.65432</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1227148723594089</v>
+        <v>0.1256571120735017</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04830187023114623</v>
+        <v>0.04337963738345396</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>838766760.9990445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1787341654.015941</v>
+        <v>1385522036.47986</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1200467225410938</v>
+        <v>0.1537293950928738</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05942632481026713</v>
+        <v>0.05901679290999069</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>893670827.5983202</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1926046116.369745</v>
+        <v>2297351264.479356</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09629703056942963</v>
+        <v>0.1079136779855097</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03292426919469353</v>
+        <v>0.04017186604137656</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>963022998.7441168</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5003873304.002856</v>
+        <v>3047059186.646267</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1154689293533226</v>
+        <v>0.1137566330666855</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04944722411177561</v>
+        <v>0.03891078433709051</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2501936587.712173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2213477739.028746</v>
+        <v>1773838068.423894</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1575245832795746</v>
+        <v>0.1462886917398116</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02635416113295857</v>
+        <v>0.03267860398124346</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1106738895.693163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3227456146.865653</v>
+        <v>2177598664.400251</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09610492486126851</v>
+        <v>0.08447608377724879</v>
       </c>
       <c r="G95" t="n">
-        <v>0.032179295168275</v>
+        <v>0.04498053543923655</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1613728056.588053</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1523343104.892118</v>
+        <v>1645390364.824249</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1289599964536479</v>
+        <v>0.09946140372418102</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03010699983257478</v>
+        <v>0.04419111558364044</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>761671590.3034464</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4834922263.712071</v>
+        <v>5216044648.869571</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1251568269495918</v>
+        <v>0.1084602060601205</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02695479276593259</v>
+        <v>0.01833773416698093</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>72</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2417461255.373013</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3171213159.450819</v>
+        <v>3860867721.644313</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1235639604565805</v>
+        <v>0.08031176936467729</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02462186234715492</v>
+        <v>0.02144758962904213</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1585606576.00316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3389354123.26047</v>
+        <v>3042565154.833832</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1457637530972868</v>
+        <v>0.1238095786195295</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03213590824681702</v>
+        <v>0.03021027829487297</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>70</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1694677075.781169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3886415443.309246</v>
+        <v>3700054764.589363</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1350837148762752</v>
+        <v>0.1292276993021646</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02590757590874624</v>
+        <v>0.01792719751920096</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1943207783.252205</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3533333065.7923</v>
+        <v>2585816100.853888</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1984796001190475</v>
+        <v>0.2197016114500211</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0378868793488689</v>
+        <v>0.04557666806489336</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>92</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1766666692.465003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_225.xlsx
+++ b/output/fit_clients/fit_round_225.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1707798887.432432</v>
+        <v>2517677141.540193</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1115743434909198</v>
+        <v>0.1030259288220781</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03434751903279747</v>
+        <v>0.03870942096647096</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2495274017.361004</v>
+        <v>1912900670.622934</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1678033573495938</v>
+        <v>0.1426964993033353</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04236139034837553</v>
+        <v>0.03614844331239563</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4468063732.007446</v>
+        <v>4713425919.507521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1136424802307754</v>
+        <v>0.162281246271459</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0313818858949874</v>
+        <v>0.02835492489887563</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2624910335.237057</v>
+        <v>2809190054.28635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08002747886019182</v>
+        <v>0.1075425247717022</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04235590100296061</v>
+        <v>0.04317315257986613</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2774805013.236168</v>
+        <v>2110051693.537755</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1433242617037248</v>
+        <v>0.09167571143912741</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04316972923022711</v>
+        <v>0.04407528541984241</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2716394175.936196</v>
+        <v>1975665230.7767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0951780881622508</v>
+        <v>0.09783670601901484</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04733074926586059</v>
+        <v>0.03532062475554158</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3228402485.434096</v>
+        <v>3947176372.649949</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1333865513320161</v>
+        <v>0.1803274854790558</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02330072391490532</v>
+        <v>0.02390022773613992</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1391601136.823539</v>
+        <v>2099503242.955638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.152256026491458</v>
+        <v>0.1331447532167851</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03086004973101754</v>
+        <v>0.02947170033966093</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5022669740.61622</v>
+        <v>3985964376.523693</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1758506319828842</v>
+        <v>0.1792789671023663</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03635380913099748</v>
+        <v>0.04768105272435395</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3623035309.7502</v>
+        <v>2616335871.112111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1792775538994872</v>
+        <v>0.1436215849466278</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03502579819214568</v>
+        <v>0.032365241165355</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2535282550.238121</v>
+        <v>2606449093.269152</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1565703544733246</v>
+        <v>0.1827119164009913</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03612187337125992</v>
+        <v>0.03553909863597463</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5032456471.002756</v>
+        <v>3860623504.055676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06561944801782257</v>
+        <v>0.09344231680905385</v>
       </c>
       <c r="G13" t="n">
-        <v>0.024234953297408</v>
+        <v>0.02286125337822368</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2911385223.687095</v>
+        <v>3296264860.216537</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1565785221332832</v>
+        <v>0.1729626229916063</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03292952422553275</v>
+        <v>0.04309599560685136</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1348945640.79285</v>
+        <v>1172966390.125446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08218479562310201</v>
+        <v>0.1009822964434786</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04828448433841212</v>
+        <v>0.04750018013361648</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2312351196.002013</v>
+        <v>1825106113.929418</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1019023848559523</v>
+        <v>0.09244235832561183</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03718431050465561</v>
+        <v>0.03490720664381287</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5042590341.305975</v>
+        <v>4318717951.606308</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1560017667951318</v>
+        <v>0.1329154420124332</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04199723590531992</v>
+        <v>0.04247311507786215</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3712684963.006335</v>
+        <v>3109612383.57486</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1782027663668513</v>
+        <v>0.1300513288413539</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02524563403253234</v>
+        <v>0.02650735392190163</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>945536944.4939842</v>
+        <v>1279624892.030894</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1436439130280374</v>
+        <v>0.1203696773766044</v>
       </c>
       <c r="G19" t="n">
-        <v>0.020923483040258</v>
+        <v>0.02730357852962052</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2562632937.479742</v>
+        <v>1895723652.116953</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1138035824051302</v>
+        <v>0.1196006639669091</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02052193953247385</v>
+        <v>0.02105667292980932</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2435160385.966168</v>
+        <v>2539972723.015694</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07664094734749766</v>
+        <v>0.09637680559556359</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03381236876507115</v>
+        <v>0.04555666619688256</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3600421315.988431</v>
+        <v>3286805445.706378</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1188056195710508</v>
+        <v>0.1227763216470173</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04025858965370919</v>
+        <v>0.04668311765143167</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1110326870.952671</v>
+        <v>1088609259.591775</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1648519720014883</v>
+        <v>0.1834775026794664</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05003288481253153</v>
+        <v>0.04384281835523113</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2670034064.212792</v>
+        <v>2816426817.167447</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1501815083039622</v>
+        <v>0.1222193518946535</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02726478943614314</v>
+        <v>0.0335666702952821</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1366777149.212815</v>
+        <v>1357551285.706355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1103639213830346</v>
+        <v>0.08530955466422631</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02540065105335924</v>
+        <v>0.0287404539438086</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>967981688.1666384</v>
+        <v>1350794551.159264</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07961097643079262</v>
+        <v>0.09719661083978813</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0299388573539593</v>
+        <v>0.02971024640748821</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3931698768.130291</v>
+        <v>4190211368.902283</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1024578067111742</v>
+        <v>0.117918443008217</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01898457999209517</v>
+        <v>0.01730405238900727</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2698410236.317708</v>
+        <v>3371161609.21771</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1392626797582449</v>
+        <v>0.1090658495753175</v>
       </c>
       <c r="G28" t="n">
-        <v>0.049421091134135</v>
+        <v>0.04992654974864477</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4430246326.258847</v>
+        <v>4475551250.184228</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09367255888827242</v>
+        <v>0.1398056226308135</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03706252335431636</v>
+        <v>0.02938335795213854</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1865425932.77987</v>
+        <v>1891961947.742182</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132867186502062</v>
+        <v>0.0905578263677559</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03320666636564261</v>
+        <v>0.02471260717620337</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1328703703.425643</v>
+        <v>1303968022.269131</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07480716083604462</v>
+        <v>0.1040095809842059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04264364160504459</v>
+        <v>0.0334707938212511</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1324769652.426396</v>
+        <v>1154854344.882911</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07541023253034534</v>
+        <v>0.1115151378387446</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03634421287261345</v>
+        <v>0.03241758205529111</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2500146375.696528</v>
+        <v>2628404614.637094</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1298923541094435</v>
+        <v>0.1345981179585716</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04373355559957575</v>
+        <v>0.05119701252900007</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1307822939.357627</v>
+        <v>1343841175.793226</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08389042562148843</v>
+        <v>0.0872039384314271</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02293874278454928</v>
+        <v>0.02532082748851481</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1326858776.964191</v>
+        <v>983719793.1988481</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1142932399281023</v>
+        <v>0.1170021926267291</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02943141308134636</v>
+        <v>0.04192078566571823</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2681663241.951012</v>
+        <v>2252406398.314444</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1474897913887128</v>
+        <v>0.1502234185980736</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02129718659217253</v>
+        <v>0.02190930867533814</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1819631514.388459</v>
+        <v>2929799913.89324</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0838633129045081</v>
+        <v>0.1089401570618353</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03270012309542261</v>
+        <v>0.03101369833809637</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2096336431.995046</v>
+        <v>1386827120.795215</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09523887375886034</v>
+        <v>0.1010190049604515</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03820034906917086</v>
+        <v>0.03295080416079467</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2137392319.995808</v>
+        <v>1781461355.492944</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1487655275802977</v>
+        <v>0.1841585583888908</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02875704108175876</v>
+        <v>0.02313562301198214</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1660966556.54527</v>
+        <v>1787359141.732859</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1131351808777335</v>
+        <v>0.1212856313456724</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03842798633409503</v>
+        <v>0.04186299161382858</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2521906520.36578</v>
+        <v>2794744741.335933</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1156024779720747</v>
+        <v>0.1458969064939126</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03673484919697118</v>
+        <v>0.03211311027477319</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3585107155.155725</v>
+        <v>3355832082.341703</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1234232023322906</v>
+        <v>0.111071072330829</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03771370478077968</v>
+        <v>0.03789078302267374</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2502261240.205717</v>
+        <v>2132718108.766056</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1503731321522482</v>
+        <v>0.1362048369352898</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02051195932018033</v>
+        <v>0.02110543703488081</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1471265447.730681</v>
+        <v>1717700238.150715</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07569736673898568</v>
+        <v>0.07525244093536575</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02515367472870296</v>
+        <v>0.03605302243151488</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2314539659.904655</v>
+        <v>1675911846.869009</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1250194498477145</v>
+        <v>0.1388057153380558</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05447714399283046</v>
+        <v>0.05187321972418516</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5676638257.339463</v>
+        <v>4388516300.887918</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1511961305869866</v>
+        <v>0.1752310460162225</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05189310451015466</v>
+        <v>0.05874216700435971</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3198657800.561008</v>
+        <v>5093347383.51241</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1848820126418253</v>
+        <v>0.1821589900314192</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0421261897800462</v>
+        <v>0.0503648572443134</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3442714380.343773</v>
+        <v>4476958185.025751</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09039127854572004</v>
+        <v>0.07722169252437003</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02427035124928064</v>
+        <v>0.02608996078140607</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1884147039.31849</v>
+        <v>1271372328.723922</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1933293066129745</v>
+        <v>0.1403653037639742</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03736797880799721</v>
+        <v>0.04105881755417984</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3389532489.390239</v>
+        <v>3620596085.570188</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1341974786489128</v>
+        <v>0.1494115689935631</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03238052819576272</v>
+        <v>0.03713595678562055</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1171042333.239009</v>
+        <v>1110465419.951516</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1352099992187019</v>
+        <v>0.1883791622570764</v>
       </c>
       <c r="G51" t="n">
-        <v>0.049097657366739</v>
+        <v>0.04364454776680974</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3694346710.345226</v>
+        <v>3540613394.611305</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1048839892821502</v>
+        <v>0.08527664894474833</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04116289482756721</v>
+        <v>0.05239701912741931</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2617722658.560569</v>
+        <v>2835008340.636103</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1980590047877199</v>
+        <v>0.140404196032845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02380429132312011</v>
+        <v>0.02527931729064027</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4888066654.297425</v>
+        <v>4885255629.432289</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1557799807739252</v>
+        <v>0.1352908215159112</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04642406937360794</v>
+        <v>0.03604625377524434</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3476826371.869955</v>
+        <v>4454624058.909755</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2175932947880787</v>
+        <v>0.2045914509733126</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03057878409131001</v>
+        <v>0.02570344533884221</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1491171607.528679</v>
+        <v>1251707779.955341</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1121613024876406</v>
+        <v>0.1616412349671716</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04180871532824604</v>
+        <v>0.04007502099224516</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3372624495.374706</v>
+        <v>3739283791.131284</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1667927141949737</v>
+        <v>0.1789328943572138</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02123179622128104</v>
+        <v>0.01827600698794149</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1764781187.357095</v>
+        <v>1425018187.004558</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1262935730558938</v>
+        <v>0.1740197860722341</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02480309923132952</v>
+        <v>0.03915506805472271</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3666100685.627517</v>
+        <v>4355353011.713355</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1218604674079387</v>
+        <v>0.1160416762989085</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03170519324766422</v>
+        <v>0.03820887709503178</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3592570554.205406</v>
+        <v>2635628042.354462</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1548075413401911</v>
+        <v>0.1985861386134184</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02498749496767039</v>
+        <v>0.02171094920091745</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2405811831.521926</v>
+        <v>2524707167.735801</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1390597176298797</v>
+        <v>0.1549455649789003</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02543553825813056</v>
+        <v>0.02067392233043468</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1304260743.549557</v>
+        <v>1872832529.067103</v>
       </c>
       <c r="F62" t="n">
-        <v>0.168183560302474</v>
+        <v>0.1518956527229611</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04954546027087162</v>
+        <v>0.03182901392488029</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3782172570.984726</v>
+        <v>4381445476.53458</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07784680714523123</v>
+        <v>0.07756177984756124</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02879095740796754</v>
+        <v>0.03890022513893764</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5178244884.628075</v>
+        <v>3707875703.565022</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1609852279109357</v>
+        <v>0.1334819313426501</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03246700420224886</v>
+        <v>0.0347931422060539</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4967810719.731339</v>
+        <v>4531371660.785995</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1709606291395818</v>
+        <v>0.1232406334972132</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02152554918962692</v>
+        <v>0.02647682739530784</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4467894685.118554</v>
+        <v>4134931938.138805</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1477263879782641</v>
+        <v>0.1144889176907552</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03266349139130396</v>
+        <v>0.04547612208816239</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2775157803.455308</v>
+        <v>2435842933.022497</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0903206234318038</v>
+        <v>0.09440344677446855</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0332375995639306</v>
+        <v>0.03711821292199577</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4683961689.274631</v>
+        <v>4788991724.02612</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1276939393215339</v>
+        <v>0.1606940177688366</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04375354992159981</v>
+        <v>0.05069726031801464</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2120435721.834603</v>
+        <v>1916014562.745786</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1439619562474646</v>
+        <v>0.1754941222399066</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05503743445563838</v>
+        <v>0.04287843292252229</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3411874671.128604</v>
+        <v>3478209341.289322</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07373732784520108</v>
+        <v>0.09921531326482556</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04771059474825011</v>
+        <v>0.03457440078018944</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5654171854.592896</v>
+        <v>4462566064.482835</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1654286123270056</v>
+        <v>0.1728894536900056</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02130688565268092</v>
+        <v>0.02155174371117988</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1865668927.423041</v>
+        <v>1615065735.957336</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09066594666433329</v>
+        <v>0.07962338909487907</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04937857605219898</v>
+        <v>0.03468290811805839</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3491633899.964341</v>
+        <v>2977321259.610501</v>
       </c>
       <c r="F73" t="n">
-        <v>0.108761034813223</v>
+        <v>0.06797114556675314</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03392305218537502</v>
+        <v>0.04275358962116759</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3088246178.231815</v>
+        <v>2662991708.747005</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1806963303091018</v>
+        <v>0.179371306899843</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02184865349236025</v>
+        <v>0.03289458673304101</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2329847060.951344</v>
+        <v>1680826812.962115</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1417335319698088</v>
+        <v>0.1057582681195704</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02423934150316244</v>
+        <v>0.02424179787025596</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4481706021.785255</v>
+        <v>4745053582.593354</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1150932138027022</v>
+        <v>0.1000316235282595</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02759453483545108</v>
+        <v>0.02371975291492146</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2271836740.706826</v>
+        <v>1980532402.23617</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1412903652247266</v>
+        <v>0.1522061506011293</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03091852301133165</v>
+        <v>0.02217113498375417</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3156551756.513278</v>
+        <v>4674358848.743289</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09004836160998048</v>
+        <v>0.1361531071749552</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04245749188880136</v>
+        <v>0.05087859565927419</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1379368725.891789</v>
+        <v>1813843026.855028</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1326808641260364</v>
+        <v>0.1297149564394409</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02643585033720963</v>
+        <v>0.03800668698695291</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4271561179.172611</v>
+        <v>4519451656.197958</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0963317352857487</v>
+        <v>0.09934581617057539</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02680835640135019</v>
+        <v>0.03735395560623227</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3916572517.458026</v>
+        <v>4495604262.765555</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1111961310253337</v>
+        <v>0.1256866146340799</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02320296108234117</v>
+        <v>0.027675515470957</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3535780375.856893</v>
+        <v>4092015452.38862</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1349476998710658</v>
+        <v>0.1490971379368492</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02388864146949664</v>
+        <v>0.02326981071904142</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2464682235.563944</v>
+        <v>1646727371.53917</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1575013643255622</v>
+        <v>0.1075156516435351</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04101299160412917</v>
+        <v>0.0390902631163914</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2593983451.763899</v>
+        <v>2036275990.619129</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07566064986166622</v>
+        <v>0.09200750217138332</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0512589941727109</v>
+        <v>0.05043578822999752</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2706070879.653042</v>
+        <v>3400401595.859227</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1305020717693379</v>
+        <v>0.1475185878021933</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03417800753483907</v>
+        <v>0.04254600991772185</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2452056813.783038</v>
+        <v>2367258687.800392</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1395998202766422</v>
+        <v>0.1102491724541517</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0187867379683364</v>
+        <v>0.02063780569453008</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1292232477.443935</v>
+        <v>1099328238.800853</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1635685198076939</v>
+        <v>0.1395714520922861</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03261419839820173</v>
+        <v>0.03185261009001006</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2841914636.088908</v>
+        <v>2349601367.546232</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1760379252204758</v>
+        <v>0.1506329421466332</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02845661604794441</v>
+        <v>0.03309535644318345</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2160088362.756738</v>
+        <v>2986565138.436853</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1474675752308907</v>
+        <v>0.1396599628568372</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03738951524591386</v>
+        <v>0.02881548762566923</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1549074702.65432</v>
+        <v>1595718208.879737</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1256571120735017</v>
+        <v>0.1207373754804838</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04337963738345396</v>
+        <v>0.0381757141655933</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1385522036.47986</v>
+        <v>2058424964.81411</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1537293950928738</v>
+        <v>0.1766038225987704</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05901679290999069</v>
+        <v>0.04316815668083437</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2297351264.479356</v>
+        <v>2266367931.446031</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1079136779855097</v>
+        <v>0.09140403367125144</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04017186604137656</v>
+        <v>0.03178124839947676</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3047059186.646267</v>
+        <v>3968418050.092682</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1137566330666855</v>
+        <v>0.1110723647236921</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03891078433709051</v>
+        <v>0.04221577127929792</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1773838068.423894</v>
+        <v>1825835825.179045</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1462886917398116</v>
+        <v>0.1349299181506891</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03267860398124346</v>
+        <v>0.03221642532186285</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2177598664.400251</v>
+        <v>2721684507.190312</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08447608377724879</v>
+        <v>0.1307752240103269</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04498053543923655</v>
+        <v>0.03831424944712287</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1645390364.824249</v>
+        <v>1678405950.587724</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09946140372418102</v>
+        <v>0.1318635360964893</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04419111558364044</v>
+        <v>0.03676195518392113</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5216044648.869571</v>
+        <v>5235044549.302955</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1084602060601205</v>
+        <v>0.1654152168411379</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01833773416698093</v>
+        <v>0.01900595166786213</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3860867721.644313</v>
+        <v>2516702419.601414</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08031176936467729</v>
+        <v>0.08259026938870301</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02144758962904213</v>
+        <v>0.03130525389290392</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3042565154.833832</v>
+        <v>3019584654.779077</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1238095786195295</v>
+        <v>0.109205488767694</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03021027829487297</v>
+        <v>0.02566318549223153</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3700054764.589363</v>
+        <v>4728511735.578611</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1292276993021646</v>
+        <v>0.1541093048537349</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01792719751920096</v>
+        <v>0.02609341511290061</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2585816100.853888</v>
+        <v>3093212394.909878</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2197016114500211</v>
+        <v>0.1787762527487474</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04557666806489336</v>
+        <v>0.03527244341319392</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_225.xlsx
+++ b/output/fit_clients/fit_round_225.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2517677141.540193</v>
+        <v>1895820733.770572</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1030259288220781</v>
+        <v>0.07424323777489714</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03870942096647096</v>
+        <v>0.04135997920064634</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1912900670.622934</v>
+        <v>2134752526.650693</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1426964993033353</v>
+        <v>0.1424583144013313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03614844331239563</v>
+        <v>0.04281402273108509</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4713425919.507521</v>
+        <v>4177642346.849761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.162281246271459</v>
+        <v>0.1075244742481808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02835492489887563</v>
+        <v>0.02744159065819603</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>123</v>
+      </c>
+      <c r="J4" t="n">
+        <v>224</v>
+      </c>
+      <c r="K4" t="n">
+        <v>108.3149253210139</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2809190054.28635</v>
+        <v>3623670457.375648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1075425247717022</v>
+        <v>0.1078077357159869</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04317315257986613</v>
+        <v>0.0440060840085837</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>93</v>
+      </c>
+      <c r="J5" t="n">
+        <v>225</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2110051693.537755</v>
+        <v>2874238025.59174</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09167571143912741</v>
+        <v>0.1293053303438021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04407528541984241</v>
+        <v>0.04892266397615022</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1975665230.7767</v>
+        <v>3129116310.107366</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09783670601901484</v>
+        <v>0.07602165588303277</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03532062475554158</v>
+        <v>0.04549668089452402</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3947176372.649949</v>
+        <v>3906425755.665431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1803274854790558</v>
+        <v>0.1859066863310737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02390022773613992</v>
+        <v>0.02219937462727116</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>224</v>
+      </c>
+      <c r="K8" t="n">
+        <v>104.1796951836214</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2099503242.955638</v>
+        <v>1520873365.916313</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1331447532167851</v>
+        <v>0.1362701355339513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02947170033966093</v>
+        <v>0.02705371976790947</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3985964376.523693</v>
+        <v>5443473015.976068</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1792789671023663</v>
+        <v>0.1561219079044883</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04768105272435395</v>
+        <v>0.04873478212731877</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>204</v>
+      </c>
+      <c r="J10" t="n">
+        <v>225</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2616335871.112111</v>
+        <v>3359545882.437528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1436215849466278</v>
+        <v>0.184611174041261</v>
       </c>
       <c r="G11" t="n">
-        <v>0.032365241165355</v>
+        <v>0.04826981768842999</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J11" t="n">
+        <v>223</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2606449093.269152</v>
+        <v>2926501650.100213</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1827119164009913</v>
+        <v>0.1896185131196869</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03553909863597463</v>
+        <v>0.04305836544791683</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3860623504.055676</v>
+        <v>3655558802.841168</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09344231680905385</v>
+        <v>0.08406221234861982</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02286125337822368</v>
+        <v>0.02824179169715692</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>114</v>
+      </c>
+      <c r="J13" t="n">
+        <v>224</v>
+      </c>
+      <c r="K13" t="n">
+        <v>89.34873016188227</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3296264860.216537</v>
+        <v>3345020505.783413</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1729626229916063</v>
+        <v>0.1437593529903679</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04309599560685136</v>
+        <v>0.03647195435056971</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>223</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1172966390.125446</v>
+        <v>1458681091.469735</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1009822964434786</v>
+        <v>0.07062707012433575</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04750018013361648</v>
+        <v>0.04277175707806645</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1825106113.929418</v>
+        <v>1979596651.989383</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09244235832561183</v>
+        <v>0.09705192843440995</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03490720664381287</v>
+        <v>0.04411910632279484</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4318717951.606308</v>
+        <v>3833466095.282039</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1329154420124332</v>
+        <v>0.1355022650643987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04247311507786215</v>
+        <v>0.04945855795569377</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>108</v>
+      </c>
+      <c r="J17" t="n">
+        <v>225</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3109612383.57486</v>
+        <v>2959832183.902841</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1300513288413539</v>
+        <v>0.1466606209526333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02650735392190163</v>
+        <v>0.03100166061226398</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1279624892.030894</v>
+        <v>888763345.9303007</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1203696773766044</v>
+        <v>0.1384520871954032</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02730357852962052</v>
+        <v>0.02196425955263483</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1895723652.116953</v>
+        <v>2158126986.277291</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1196006639669091</v>
+        <v>0.108970527044893</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02105667292980932</v>
+        <v>0.02211453308396117</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2539972723.015694</v>
+        <v>2475368437.604655</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09637680559556359</v>
+        <v>0.06259355333590584</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04555666619688256</v>
+        <v>0.04284053814947757</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3286805445.706378</v>
+        <v>2438154838.159497</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1227763216470173</v>
+        <v>0.1325055694273847</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04668311765143167</v>
+        <v>0.03759639896850715</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>222</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1088609259.591775</v>
+        <v>1166422099.96008</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1834775026794664</v>
+        <v>0.1406345438664675</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04384281835523113</v>
+        <v>0.03862703677441189</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2816426817.167447</v>
+        <v>3020489349.145797</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1222193518946535</v>
+        <v>0.141503455939638</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0335666702952821</v>
+        <v>0.02388463853504837</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1357551285.706355</v>
+        <v>1174235279.95394</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08530955466422631</v>
+        <v>0.09935056913450335</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0287404539438086</v>
+        <v>0.01962488305315741</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1350794551.159264</v>
+        <v>1451788749.67194</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09719661083978813</v>
+        <v>0.1016431381696447</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02971024640748821</v>
+        <v>0.03900255880023056</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4190211368.902283</v>
+        <v>3291675339.273189</v>
       </c>
       <c r="F27" t="n">
-        <v>0.117918443008217</v>
+        <v>0.128030412895227</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01730405238900727</v>
+        <v>0.0216930090994838</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>90</v>
+      </c>
+      <c r="J27" t="n">
+        <v>224</v>
+      </c>
+      <c r="K27" t="n">
+        <v>63.02744188291496</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3371161609.21771</v>
+        <v>3157249136.746068</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1090658495753175</v>
+        <v>0.116345005414287</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04992654974864477</v>
+        <v>0.03545093145065981</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>222</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4475551250.184228</v>
+        <v>4068768689.414729</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1398056226308135</v>
+        <v>0.1037565767038363</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02938335795213854</v>
+        <v>0.04122642694357045</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>214</v>
+      </c>
+      <c r="J29" t="n">
+        <v>225</v>
+      </c>
+      <c r="K29" t="n">
+        <v>123.0475243628911</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1891961947.742182</v>
+        <v>1597022794.200458</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0905578263677559</v>
+        <v>0.1053345196101632</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02471260717620337</v>
+        <v>0.03650932180686575</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1303968022.269131</v>
+        <v>1422502264.167708</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1040095809842059</v>
+        <v>0.1081699364839131</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0334707938212511</v>
+        <v>0.05043498830101125</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1154854344.882911</v>
+        <v>1755100997.015349</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1115151378387446</v>
+        <v>0.1092776767676939</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03241758205529111</v>
+        <v>0.02813152188066551</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2628404614.637094</v>
+        <v>2153528255.419052</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1345981179585716</v>
+        <v>0.1308858503524359</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05119701252900007</v>
+        <v>0.05385457957906966</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1343841175.793226</v>
+        <v>1487490344.278877</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0872039384314271</v>
+        <v>0.1070890841592331</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02532082748851481</v>
+        <v>0.01829606433391011</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>983719793.1988481</v>
+        <v>1052048721.366046</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1170021926267291</v>
+        <v>0.1088658973571248</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04192078566571823</v>
+        <v>0.03335687145786213</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2252406398.314444</v>
+        <v>2494174506.355993</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1502234185980736</v>
+        <v>0.1442838587435885</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02190930867533814</v>
+        <v>0.02139813760853708</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2929799913.89324</v>
+        <v>2503477119.567199</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1089401570618353</v>
+        <v>0.08519614694694023</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03101369833809637</v>
+        <v>0.02856462876447948</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1386827120.795215</v>
+        <v>1346035721.37154</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1010190049604515</v>
+        <v>0.107531780878822</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03295080416079467</v>
+        <v>0.03251492479195924</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1781461355.492944</v>
+        <v>1488971208.079119</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1841585583888908</v>
+        <v>0.1430503277589902</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02313562301198214</v>
+        <v>0.02631245076506814</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1787359141.732859</v>
+        <v>1143197466.602252</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1212856313456724</v>
+        <v>0.1527433474815278</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04186299161382858</v>
+        <v>0.03641877732163509</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2794744741.335933</v>
+        <v>1796655393.879144</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1458969064939126</v>
+        <v>0.1270274364018758</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03211311027477319</v>
+        <v>0.03794160929098173</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3355832082.341703</v>
+        <v>4195654194.137197</v>
       </c>
       <c r="F42" t="n">
-        <v>0.111071072330829</v>
+        <v>0.08792311024359568</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03789078302267374</v>
+        <v>0.03505852581512212</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>90</v>
+      </c>
+      <c r="J42" t="n">
+        <v>225</v>
+      </c>
+      <c r="K42" t="n">
+        <v>117.5824708600484</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2132718108.766056</v>
+        <v>2983527289.360719</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1362048369352898</v>
+        <v>0.1272681421288848</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02110543703488081</v>
+        <v>0.02562895540586161</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1717700238.150715</v>
+        <v>2047345534.782409</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07525244093536575</v>
+        <v>0.08690535783554479</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03605302243151488</v>
+        <v>0.03399507387934083</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1675911846.869009</v>
+        <v>2387766925.701855</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1388057153380558</v>
+        <v>0.1239593750800333</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05187321972418516</v>
+        <v>0.0434339431539205</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4388516300.887918</v>
+        <v>4860230656.716173</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1752310460162225</v>
+        <v>0.1648633662853487</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05874216700435971</v>
+        <v>0.05673265347280287</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>129</v>
+      </c>
+      <c r="J46" t="n">
+        <v>225</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5093347383.51241</v>
+        <v>3189528923.860871</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1821589900314192</v>
+        <v>0.1592624287470023</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0503648572443134</v>
+        <v>0.03726904302462964</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>101</v>
+      </c>
+      <c r="J47" t="n">
+        <v>223</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4476958185.025751</v>
+        <v>3259614275.482287</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07722169252437003</v>
+        <v>0.06820000815359048</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02608996078140607</v>
+        <v>0.0248891328789272</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>110</v>
+      </c>
+      <c r="J48" t="n">
+        <v>224</v>
+      </c>
+      <c r="K48" t="n">
+        <v>75.23706776963277</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1271372328.723922</v>
+        <v>1546610674.599374</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1403653037639742</v>
+        <v>0.1553044824511944</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04105881755417984</v>
+        <v>0.0387054364052026</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3620596085.570188</v>
+        <v>4189565812.788974</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1494115689935631</v>
+        <v>0.1405053710208509</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03713595678562055</v>
+        <v>0.05334554399588728</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>73</v>
+      </c>
+      <c r="J50" t="n">
+        <v>225</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1110465419.951516</v>
+        <v>1235308942.254465</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1883791622570764</v>
+        <v>0.1883211429293767</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04364454776680974</v>
+        <v>0.05331270954936924</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3540613394.611305</v>
+        <v>5064474038.178311</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08527664894474833</v>
+        <v>0.1017783238915272</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05239701912741931</v>
+        <v>0.05551135197722619</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>149</v>
+      </c>
+      <c r="J52" t="n">
+        <v>225</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2835008340.636103</v>
+        <v>2724593264.409299</v>
       </c>
       <c r="F53" t="n">
-        <v>0.140404196032845</v>
+        <v>0.1640914869319629</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02527931729064027</v>
+        <v>0.0277030721428</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4885255629.432289</v>
+        <v>3865360003.837352</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1352908215159112</v>
+        <v>0.1300919701286309</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03604625377524434</v>
+        <v>0.0510530274009614</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>120</v>
+      </c>
+      <c r="J54" t="n">
+        <v>224</v>
+      </c>
+      <c r="K54" t="n">
+        <v>101.4786904618387</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4454624058.909755</v>
+        <v>3276787665.491434</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2045914509733126</v>
+        <v>0.1589362438562578</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02570344533884221</v>
+        <v>0.02120419131998186</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>101</v>
+      </c>
+      <c r="J55" t="n">
+        <v>223</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1251707779.955341</v>
+        <v>1879720462.845174</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1616412349671716</v>
+        <v>0.1185481907232799</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04007502099224516</v>
+        <v>0.04048742875658891</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3739283791.131284</v>
+        <v>3353441001.43999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1789328943572138</v>
+        <v>0.130605322308189</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01827600698794149</v>
+        <v>0.02546962656371074</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>88</v>
+      </c>
+      <c r="J57" t="n">
+        <v>224</v>
+      </c>
+      <c r="K57" t="n">
+        <v>75.77439578962704</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1425018187.004558</v>
+        <v>1271277179.468529</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1740197860722341</v>
+        <v>0.1313558091453704</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03915506805472271</v>
+        <v>0.02471631753535477</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4355353011.713355</v>
+        <v>3923849265.406092</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160416762989085</v>
+        <v>0.1258661175178567</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03820887709503178</v>
+        <v>0.03652503606373125</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>109</v>
+      </c>
+      <c r="J59" t="n">
+        <v>224</v>
+      </c>
+      <c r="K59" t="n">
+        <v>94.90331148101613</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2635628042.354462</v>
+        <v>2519126913.696074</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1985861386134184</v>
+        <v>0.163721477496039</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02171094920091745</v>
+        <v>0.02811546556763253</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2524707167.735801</v>
+        <v>2327441344.876128</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1549455649789003</v>
+        <v>0.1700718649134728</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02067392233043468</v>
+        <v>0.03282779526926267</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1872832529.067103</v>
+        <v>2090402239.115341</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1518956527229611</v>
+        <v>0.1385397050406764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03182901392488029</v>
+        <v>0.03642826589949499</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4381445476.53458</v>
+        <v>5128167864.899016</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07756177984756124</v>
+        <v>0.1054033173631877</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03890022513893764</v>
+        <v>0.04343875179429624</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>109</v>
+      </c>
+      <c r="J63" t="n">
+        <v>225</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3707875703.565022</v>
+        <v>4363367035.55472</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1334819313426501</v>
+        <v>0.1879717747633905</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0347931422060539</v>
+        <v>0.02326903001629196</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>111</v>
+      </c>
+      <c r="J64" t="n">
+        <v>224</v>
+      </c>
+      <c r="K64" t="n">
+        <v>105.7407221962107</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4531371660.785995</v>
+        <v>5136532845.342843</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1232406334972132</v>
+        <v>0.1335830156815286</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02647682739530784</v>
+        <v>0.02199192499073532</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>178</v>
+      </c>
+      <c r="J65" t="n">
+        <v>225</v>
+      </c>
+      <c r="K65" t="n">
+        <v>113.4556226178636</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4134931938.138805</v>
+        <v>4842114579.892304</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1144889176907552</v>
+        <v>0.1109985001504816</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04547612208816239</v>
+        <v>0.03797996488839354</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>111</v>
+      </c>
+      <c r="J66" t="n">
+        <v>224</v>
+      </c>
+      <c r="K66" t="n">
+        <v>101.1736039276634</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2435842933.022497</v>
+        <v>3305487378.442247</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09440344677446855</v>
+        <v>0.06995073835894869</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03711821292199577</v>
+        <v>0.0440792254061248</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4788991724.02612</v>
+        <v>4162485949.437758</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1606940177688366</v>
+        <v>0.1511249353775951</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05069726031801464</v>
+        <v>0.04843589137285878</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>113</v>
+      </c>
+      <c r="J68" t="n">
+        <v>225</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1916014562.745786</v>
+        <v>1711259817.942122</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1754941222399066</v>
+        <v>0.1805277467569611</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04287843292252229</v>
+        <v>0.04748170827235648</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3478209341.289322</v>
+        <v>3483997608.08965</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09921531326482556</v>
+        <v>0.06314060471633659</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03457440078018944</v>
+        <v>0.03835939139826088</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>33</v>
+      </c>
+      <c r="J70" t="n">
+        <v>225</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4462566064.482835</v>
+        <v>5118487312.063256</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1728894536900056</v>
+        <v>0.1416634050627886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02155174371117988</v>
+        <v>0.03407614413301514</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>172</v>
+      </c>
+      <c r="J71" t="n">
+        <v>225</v>
+      </c>
+      <c r="K71" t="n">
+        <v>112.9452209765066</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1615065735.957336</v>
+        <v>1413032552.859638</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07962338909487907</v>
+        <v>0.09483204888501454</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03468290811805839</v>
+        <v>0.04947402056593166</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2977321259.610501</v>
+        <v>2668333763.488277</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06797114556675314</v>
+        <v>0.1096730714815097</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04275358962116759</v>
+        <v>0.0433781887335114</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2662991708.747005</v>
+        <v>3647994860.776845</v>
       </c>
       <c r="F74" t="n">
-        <v>0.179371306899843</v>
+        <v>0.1736980728018015</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03289458673304101</v>
+        <v>0.02538852954826263</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>225</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1680826812.962115</v>
+        <v>2163591328.328268</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1057582681195704</v>
+        <v>0.1624556593726245</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02424179787025596</v>
+        <v>0.03034265031207816</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4745053582.593354</v>
+        <v>4908771623.683655</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1000316235282595</v>
+        <v>0.07993252911247808</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02371975291492146</v>
+        <v>0.02328159098330288</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>104</v>
+      </c>
+      <c r="J76" t="n">
+        <v>224</v>
+      </c>
+      <c r="K76" t="n">
+        <v>97.90942857474795</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1980532402.23617</v>
+        <v>1832336649.08</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1522061506011293</v>
+        <v>0.1356442575491924</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02217113498375417</v>
+        <v>0.02478009629016022</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4674358848.743289</v>
+        <v>2894530758.438385</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1361531071749552</v>
+        <v>0.1190631135263032</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05087859565927419</v>
+        <v>0.05163824222222467</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>113</v>
+      </c>
+      <c r="J78" t="n">
+        <v>224</v>
+      </c>
+      <c r="K78" t="n">
+        <v>56.94522979960537</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1813843026.855028</v>
+        <v>1377703937.791756</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1297149564394409</v>
+        <v>0.1477186060367443</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03800668698695291</v>
+        <v>0.02487349137965611</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4519451656.197958</v>
+        <v>4863699639.770082</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09934581617057539</v>
+        <v>0.1076075516326814</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03735395560623227</v>
+        <v>0.03854564707481687</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>109</v>
+      </c>
+      <c r="J80" t="n">
+        <v>225</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4495604262.765555</v>
+        <v>4927415251.17961</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1256866146340799</v>
+        <v>0.1271209448574768</v>
       </c>
       <c r="G81" t="n">
-        <v>0.027675515470957</v>
+        <v>0.03230395350856259</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>103</v>
+      </c>
+      <c r="J81" t="n">
+        <v>225</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4092015452.38862</v>
+        <v>4694194911.456915</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1490971379368492</v>
+        <v>0.1390027788281652</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02326981071904142</v>
+        <v>0.02162434435000439</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>168</v>
+      </c>
+      <c r="J82" t="n">
+        <v>225</v>
+      </c>
+      <c r="K82" t="n">
+        <v>115.971176749655</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1646727371.53917</v>
+        <v>2018909180.151034</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1075156516435351</v>
+        <v>0.1267164835886261</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0390902631163914</v>
+        <v>0.0402465384006683</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2036275990.619129</v>
+        <v>2163175464.546023</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09200750217138332</v>
+        <v>0.1080650439979688</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05043578822999752</v>
+        <v>0.04667547116638217</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3400401595.859227</v>
+        <v>3441594955.867484</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1475185878021933</v>
+        <v>0.1554771419188536</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04254600991772185</v>
+        <v>0.0402245728175526</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2367258687.800392</v>
+        <v>2192416529.066572</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1102491724541517</v>
+        <v>0.165792363848836</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02063780569453008</v>
+        <v>0.02434679089354923</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1099328238.800853</v>
+        <v>1341339487.674087</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1395714520922861</v>
+        <v>0.1501622923351863</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03185261009001006</v>
+        <v>0.03666413173914231</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2349601367.546232</v>
+        <v>3044538261.263479</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1506329421466332</v>
+        <v>0.1687930082479216</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03309535644318345</v>
+        <v>0.02713547154761734</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2986565138.436853</v>
+        <v>3447307868.789849</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1396599628568372</v>
+        <v>0.1357035144622441</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02881548762566923</v>
+        <v>0.041609212707785</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1595718208.879737</v>
+        <v>1628218312.966339</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1207373754804838</v>
+        <v>0.1343096236661736</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0381757141655933</v>
+        <v>0.04882051387864707</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2058424964.81411</v>
+        <v>1663263972.084403</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1766038225987704</v>
+        <v>0.1872941360310132</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04316815668083437</v>
+        <v>0.05918488812817474</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2266367931.446031</v>
+        <v>2257749846.046882</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09140403367125144</v>
+        <v>0.08644640634465736</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03178124839947676</v>
+        <v>0.0437013894929025</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3968418050.092682</v>
+        <v>4856541955.569934</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1110723647236921</v>
+        <v>0.1227714133418628</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04221577127929792</v>
+        <v>0.04846744617647732</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>101</v>
+      </c>
+      <c r="J93" t="n">
+        <v>224</v>
+      </c>
+      <c r="K93" t="n">
+        <v>106.610948267861</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1825835825.179045</v>
+        <v>2093631520.633533</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1349299181506891</v>
+        <v>0.1103610177530025</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03221642532186285</v>
+        <v>0.03057073433564622</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2721684507.190312</v>
+        <v>3089590053.581629</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1307752240103269</v>
+        <v>0.1304543974614186</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03831424944712287</v>
+        <v>0.04545654746283413</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1678405950.587724</v>
+        <v>2091585897.086536</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1318635360964893</v>
+        <v>0.1355848744572646</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03676195518392113</v>
+        <v>0.04055586405067373</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5235044549.302955</v>
+        <v>4212980185.636879</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1654152168411379</v>
+        <v>0.1442886990246676</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01900595166786213</v>
+        <v>0.02068498704893148</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>109</v>
+      </c>
+      <c r="J97" t="n">
+        <v>224</v>
+      </c>
+      <c r="K97" t="n">
+        <v>109.4607343237565</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2516702419.601414</v>
+        <v>2807698707.844628</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08259026938870301</v>
+        <v>0.08326902637886974</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03130525389290392</v>
+        <v>0.02381297755321377</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54</v>
+      </c>
+      <c r="J98" t="n">
+        <v>224</v>
+      </c>
+      <c r="K98" t="n">
+        <v>48.46402995122175</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3019584654.779077</v>
+        <v>2084018074.113988</v>
       </c>
       <c r="F99" t="n">
-        <v>0.109205488767694</v>
+        <v>0.1319350915340857</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02566318549223153</v>
+        <v>0.02450549353242443</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4728511735.578611</v>
+        <v>3934207098.728085</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1541093048537349</v>
+        <v>0.116445105989427</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02609341511290061</v>
+        <v>0.02418706411168667</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>94</v>
+      </c>
+      <c r="J100" t="n">
+        <v>225</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3093212394.909878</v>
+        <v>3120281774.231818</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1787762527487474</v>
+        <v>0.1917195503739497</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03527244341319392</v>
+        <v>0.03990774476230488</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
